--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_DeepAR_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_DeepAR_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.301149841168024</v>
+        <v>-1.041823831080326</v>
       </c>
       <c r="D2">
-        <v>0.1933856938086354</v>
+        <v>0.3088075895544602</v>
       </c>
       <c r="E2">
         <v>0.5562680385510388</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.3737219084872299</v>
+        <v>-0.3506101329108211</v>
       </c>
       <c r="D3">
-        <v>0.7086584075513103</v>
+        <v>0.7292157686421357</v>
       </c>
       <c r="E3">
         <v>0.5562680385510388</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.1824096295174433</v>
+        <v>-0.2007990298098971</v>
       </c>
       <c r="D4">
-        <v>0.8552832901674876</v>
+        <v>0.8427005179111091</v>
       </c>
       <c r="E4">
         <v>0.5562680385510388</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.1154671983590686</v>
+        <v>-0.1164142192603153</v>
       </c>
       <c r="D5">
-        <v>0.9080886258710343</v>
+        <v>0.9083804309342023</v>
       </c>
       <c r="E5">
         <v>0.5562680385510388</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.024700219776822</v>
+        <v>0.8054786037009706</v>
       </c>
       <c r="D6">
-        <v>0.3056522672582327</v>
+        <v>0.4291639593471186</v>
       </c>
       <c r="E6">
         <v>0.5828496084286406</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.099936873137233</v>
+        <v>1.090657346350184</v>
       </c>
       <c r="D7">
-        <v>0.2715173072411279</v>
+        <v>0.2872255518190878</v>
       </c>
       <c r="E7">
         <v>0.5828496084286406</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.407297779213748</v>
+        <v>1.305853788508668</v>
       </c>
       <c r="D8">
-        <v>0.159524197880321</v>
+        <v>0.205092775619633</v>
       </c>
       <c r="E8">
         <v>0.5828496084286406</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.1488986867898807</v>
+        <v>0.1369906012062921</v>
       </c>
       <c r="D9">
-        <v>0.8816514586478281</v>
+        <v>0.8922841831313122</v>
       </c>
       <c r="E9">
         <v>0.5622198736275853</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.2358098246683282</v>
+        <v>0.1909808744941197</v>
       </c>
       <c r="D10">
-        <v>0.8136090038704138</v>
+        <v>0.8502920777729419</v>
       </c>
       <c r="E10">
         <v>0.5622198736275853</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.06821030881721922</v>
+        <v>0.06135251729998123</v>
       </c>
       <c r="D11">
-        <v>0.9456263426413911</v>
+        <v>0.9516324346901412</v>
       </c>
       <c r="E11">
         <v>0.5596432679274818</v>
